--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>26.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>26.49</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501041</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富弘安混合（LOF）A</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.65</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501042</t>
+          <t>006265</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富弘安混合（LOF）C</t>
+          <t>红土创新新科技股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.65</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>004946</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>汇添富盈润混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>002420</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>汇添富盈鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>89.27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.19</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006080</t>
+          <t>501041</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票C</t>
+          <t>汇添富弘安混合（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006265</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红土创新新科技股票</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>004947</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>汇添富盈润混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002420</t>
+          <t>008082</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富盈鑫灵活配置混合</t>
+          <t>国寿安保研究精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008082</t>
+          <t>501042</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合A</t>
+          <t>汇添富弘安混合（LOF）C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>61.40</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004946</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富盈润混合A</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004947</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富盈润混合C</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,666 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1826,4 +1827,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2757,4 +2758,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2766,7 +2767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2777,17 +2778,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2797,14 +2818,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.45</v>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2813,14 +2856,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2829,14 +2894,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2845,13 +2932,2469 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9887</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6074</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3921</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5293,7 +5294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5304,17 +5305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5324,14 +5345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.43</v>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5340,14 +5383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.45</v>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5356,14 +5421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5372,14 +5459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.71</v>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5388,13 +5497,1875 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7248,7 +7249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7259,17 +7260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7279,14 +7300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.68</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7295,14 +7338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.43</v>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7311,14 +7376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.45</v>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7327,14 +7414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.28</v>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7343,14 +7452,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.71</v>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8998</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -7359,13 +7490,1665 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>14.42</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>10.68</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>22.43</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>7.45</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,2868 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5718</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8827</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6965</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2365,7 +5244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4319,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6845,7 +9724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7775,7 +10654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8437,7 +11316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9025,7 +11904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002484-江海股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>19.47</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>14.42</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>10.68</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>22.43</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>7.45</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>1.28</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.71</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -616,7 +633,2887 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6958</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012952</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012951</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>017197</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3478,7 +6375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5244,7 +8141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7198,7 +10095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9724,7 +12621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10654,7 +13551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11316,7 +14213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11902,136 +14799,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004946</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004947</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富盈润混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>